--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>405.988787689166</v>
+        <v>428.2238463333333</v>
       </c>
       <c r="N2">
-        <v>405.988787689166</v>
+        <v>1284.671539</v>
       </c>
       <c r="O2">
-        <v>0.6589121170792183</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="P2">
-        <v>0.6589121170792183</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="Q2">
-        <v>2195.029828476659</v>
+        <v>6504.283294738791</v>
       </c>
       <c r="R2">
-        <v>2195.029828476659</v>
+        <v>58538.54965264912</v>
       </c>
       <c r="S2">
-        <v>0.004114951030457113</v>
+        <v>0.008750290856681584</v>
       </c>
       <c r="T2">
-        <v>0.004114951030457113</v>
+        <v>0.008750290856681582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>73.87663450791339</v>
+        <v>0.376277</v>
       </c>
       <c r="N3">
-        <v>73.87663450791339</v>
+        <v>1.128831</v>
       </c>
       <c r="O3">
-        <v>0.1199003793266477</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="P3">
-        <v>0.1199003793266477</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="Q3">
-        <v>399.4233862844812</v>
+        <v>5.715263702034333</v>
       </c>
       <c r="R3">
-        <v>399.4233862844812</v>
+        <v>51.43737331830899</v>
       </c>
       <c r="S3">
-        <v>0.0007487860318147257</v>
+        <v>7.688813271077479E-06</v>
       </c>
       <c r="T3">
-        <v>0.0007487860318147257</v>
+        <v>7.688813271077478E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.4524717695131</v>
+        <v>76.72111133333333</v>
       </c>
       <c r="N4">
-        <v>59.4524717695131</v>
+        <v>230.163334</v>
       </c>
       <c r="O4">
-        <v>0.09649023625064933</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="P4">
-        <v>0.09649023625064933</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="Q4">
-        <v>321.4373225761629</v>
+        <v>1165.315400046069</v>
       </c>
       <c r="R4">
-        <v>321.4373225761629</v>
+        <v>10487.83860041463</v>
       </c>
       <c r="S4">
-        <v>0.0006025880945226626</v>
+        <v>0.00156771287905332</v>
       </c>
       <c r="T4">
-        <v>0.0006025880945226626</v>
+        <v>0.00156771287905332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.8681407630072</v>
+        <v>66.29053499999999</v>
       </c>
       <c r="N5">
-        <v>54.8681407630072</v>
+        <v>198.871605</v>
       </c>
       <c r="O5">
-        <v>0.0890499538081662</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="P5">
-        <v>0.0890499538081662</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="Q5">
-        <v>296.6515560524944</v>
+        <v>1006.885588207455</v>
       </c>
       <c r="R5">
-        <v>296.6515560524944</v>
+        <v>9061.970293867094</v>
       </c>
       <c r="S5">
-        <v>0.0005561230241285983</v>
+        <v>0.00135457534012131</v>
       </c>
       <c r="T5">
-        <v>0.0005561230241285983</v>
+        <v>0.00135457534012131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.9640969280272</v>
+        <v>55.09903466666666</v>
       </c>
       <c r="N6">
-        <v>21.9640969280272</v>
+        <v>165.297104</v>
       </c>
       <c r="O6">
-        <v>0.0356473135353185</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="P6">
-        <v>0.0356473135353185</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="Q6">
-        <v>118.75167338238</v>
+        <v>836.8981172049616</v>
       </c>
       <c r="R6">
-        <v>118.75167338238</v>
+        <v>7532.083054844656</v>
       </c>
       <c r="S6">
-        <v>0.0002226198999274908</v>
+        <v>0.001125889142755536</v>
       </c>
       <c r="T6">
-        <v>0.0002226198999274908</v>
+        <v>0.001125889142755536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.47101091744349</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H7">
-        <v>93.47101091744349</v>
+        <v>45.566939</v>
       </c>
       <c r="I7">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J7">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>405.988787689166</v>
+        <v>22.71418433333333</v>
       </c>
       <c r="N7">
-        <v>405.988787689166</v>
+        <v>68.14255299999999</v>
       </c>
       <c r="O7">
-        <v>0.6589121170792183</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="P7">
-        <v>0.6589121170792183</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="Q7">
-        <v>37948.18240645368</v>
+        <v>345.0052839839186</v>
       </c>
       <c r="R7">
-        <v>37948.18240645368</v>
+        <v>3105.047555855267</v>
       </c>
       <c r="S7">
-        <v>0.07114022336807235</v>
+        <v>0.000464139774537996</v>
       </c>
       <c r="T7">
-        <v>0.07114022336807235</v>
+        <v>0.0004641397745379958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.87663450791339</v>
+        <v>428.2238463333333</v>
       </c>
       <c r="N8">
-        <v>73.87663450791339</v>
+        <v>1284.671539</v>
       </c>
       <c r="O8">
-        <v>0.1199003793266477</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="P8">
-        <v>0.1199003793266477</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="Q8">
-        <v>6905.323710633155</v>
+        <v>40896.72337512364</v>
       </c>
       <c r="R8">
-        <v>6905.323710633155</v>
+        <v>368070.5103761128</v>
       </c>
       <c r="S8">
-        <v>0.01294518577837722</v>
+        <v>0.05501885579108249</v>
       </c>
       <c r="T8">
-        <v>0.01294518577837722</v>
+        <v>0.05501885579108248</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>59.4524717695131</v>
+        <v>0.376277</v>
       </c>
       <c r="N9">
-        <v>59.4524717695131</v>
+        <v>1.128831</v>
       </c>
       <c r="O9">
-        <v>0.09649023625064933</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="P9">
-        <v>0.09649023625064933</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="Q9">
-        <v>5557.08263783716</v>
+        <v>35.93563626403667</v>
       </c>
       <c r="R9">
-        <v>5557.08263783716</v>
+        <v>323.42072637633</v>
       </c>
       <c r="S9">
-        <v>0.01041768208807123</v>
+        <v>4.834464539461043E-05</v>
       </c>
       <c r="T9">
-        <v>0.01041768208807123</v>
+        <v>4.834464539461041E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.8681407630072</v>
+        <v>76.72111133333333</v>
       </c>
       <c r="N10">
-        <v>54.8681407630072</v>
+        <v>230.163334</v>
       </c>
       <c r="O10">
-        <v>0.0890499538081662</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="P10">
-        <v>0.0890499538081662</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="Q10">
-        <v>5128.580584278872</v>
+        <v>7327.107292359958</v>
       </c>
       <c r="R10">
-        <v>5128.580584278872</v>
+        <v>65943.96563123963</v>
       </c>
       <c r="S10">
-        <v>0.009614383224444229</v>
+        <v>0.009857245916413777</v>
       </c>
       <c r="T10">
-        <v>0.009614383224444229</v>
+        <v>0.009857245916413777</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.9640969280272</v>
+        <v>66.29053499999999</v>
       </c>
       <c r="N11">
-        <v>21.9640969280272</v>
+        <v>198.871605</v>
       </c>
       <c r="O11">
-        <v>0.0356473135353185</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="P11">
-        <v>0.0356473135353185</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="Q11">
-        <v>2053.006343751417</v>
+        <v>6330.954465748349</v>
       </c>
       <c r="R11">
-        <v>2053.006343751417</v>
+        <v>56978.59019173515</v>
       </c>
       <c r="S11">
-        <v>0.00384870422267463</v>
+        <v>0.008517109490067187</v>
       </c>
       <c r="T11">
-        <v>0.00384870422267463</v>
+        <v>0.008517109490067187</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J12">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>405.988787689166</v>
+        <v>55.09903466666666</v>
       </c>
       <c r="N12">
-        <v>405.988787689166</v>
+        <v>165.297104</v>
       </c>
       <c r="O12">
-        <v>0.6589121170792183</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="P12">
-        <v>0.6589121170792183</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="Q12">
-        <v>79900.7923328902</v>
+        <v>5262.131005298968</v>
       </c>
       <c r="R12">
-        <v>79900.7923328902</v>
+        <v>47359.17904769072</v>
       </c>
       <c r="S12">
-        <v>0.1497874167718002</v>
+        <v>0.007079208382509021</v>
       </c>
       <c r="T12">
-        <v>0.1497874167718002</v>
+        <v>0.00707920838250902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J13">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>73.87663450791339</v>
+        <v>22.71418433333333</v>
       </c>
       <c r="N13">
-        <v>73.87663450791339</v>
+        <v>68.14255299999999</v>
       </c>
       <c r="O13">
-        <v>0.1199003793266477</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="P13">
-        <v>0.1199003793266477</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="Q13">
-        <v>14539.32180163787</v>
+        <v>2169.276002086088</v>
       </c>
       <c r="R13">
-        <v>14539.32180163787</v>
+        <v>19523.48401877479</v>
       </c>
       <c r="S13">
-        <v>0.02725639371894919</v>
+        <v>0.002918353199963898</v>
       </c>
       <c r="T13">
-        <v>0.02725639371894919</v>
+        <v>0.002918353199963897</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H14">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I14">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J14">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.4524717695131</v>
+        <v>428.2238463333333</v>
       </c>
       <c r="N14">
-        <v>59.4524717695131</v>
+        <v>1284.671539</v>
       </c>
       <c r="O14">
-        <v>0.09649023625064933</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="P14">
-        <v>0.09649023625064933</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="Q14">
-        <v>11700.56845059923</v>
+        <v>172185.0879163738</v>
       </c>
       <c r="R14">
-        <v>11700.56845059923</v>
+        <v>1549665.791247364</v>
       </c>
       <c r="S14">
-        <v>0.02193467513657492</v>
+        <v>0.2316426779365962</v>
       </c>
       <c r="T14">
-        <v>0.02193467513657492</v>
+        <v>0.2316426779365961</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H15">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I15">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J15">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>54.8681407630072</v>
+        <v>0.376277</v>
       </c>
       <c r="N15">
-        <v>54.8681407630072</v>
+        <v>1.128831</v>
       </c>
       <c r="O15">
-        <v>0.0890499538081662</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="P15">
-        <v>0.0890499538081662</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="Q15">
-        <v>10798.34727887441</v>
+        <v>151.2977123545726</v>
       </c>
       <c r="R15">
-        <v>10798.34727887441</v>
+        <v>1361.679411191154</v>
       </c>
       <c r="S15">
-        <v>0.02024331044889512</v>
+        <v>0.0002035426393748774</v>
       </c>
       <c r="T15">
-        <v>0.02024331044889512</v>
+        <v>0.0002035426393748774</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H16">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I16">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J16">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.9640969280272</v>
+        <v>76.72111133333333</v>
       </c>
       <c r="N16">
-        <v>21.9640969280272</v>
+        <v>230.163334</v>
       </c>
       <c r="O16">
-        <v>0.0356473135353185</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="P16">
-        <v>0.0356473135353185</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="Q16">
-        <v>4322.653237333738</v>
+        <v>30848.89226297066</v>
       </c>
       <c r="R16">
-        <v>4322.653237333738</v>
+        <v>277640.0303667359</v>
       </c>
       <c r="S16">
-        <v>0.008103537438313397</v>
+        <v>0.04150138726672236</v>
       </c>
       <c r="T16">
-        <v>0.008103537438313397</v>
+        <v>0.04150138726672235</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H17">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I17">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J17">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>405.988787689166</v>
+        <v>66.29053499999999</v>
       </c>
       <c r="N17">
-        <v>405.988787689166</v>
+        <v>198.871605</v>
       </c>
       <c r="O17">
-        <v>0.6589121170792183</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="P17">
-        <v>0.6589121170792183</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="Q17">
-        <v>68236.94202985906</v>
+        <v>26654.84814713823</v>
       </c>
       <c r="R17">
-        <v>68236.94202985906</v>
+        <v>239893.633324244</v>
       </c>
       <c r="S17">
-        <v>0.1279215759522863</v>
+        <v>0.03585908907393407</v>
       </c>
       <c r="T17">
-        <v>0.1279215759522863</v>
+        <v>0.03585908907393406</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H18">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I18">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J18">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>73.87663450791339</v>
+        <v>55.09903466666666</v>
       </c>
       <c r="N18">
-        <v>73.87663450791339</v>
+        <v>165.297104</v>
       </c>
       <c r="O18">
-        <v>0.1199003793266477</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="P18">
-        <v>0.1199003793266477</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="Q18">
-        <v>12416.88386265771</v>
+        <v>22154.84310232079</v>
       </c>
       <c r="R18">
-        <v>12416.88386265771</v>
+        <v>199393.5879208871</v>
       </c>
       <c r="S18">
-        <v>0.02327752834282405</v>
+        <v>0.02980517794885471</v>
       </c>
       <c r="T18">
-        <v>0.02327752834282405</v>
+        <v>0.02980517794885471</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H19">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I19">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J19">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.4524717695131</v>
+        <v>22.71418433333333</v>
       </c>
       <c r="N19">
-        <v>59.4524717695131</v>
+        <v>68.14255299999999</v>
       </c>
       <c r="O19">
-        <v>0.09649023625064933</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="P19">
-        <v>0.09649023625064933</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="Q19">
-        <v>9992.529332544316</v>
+        <v>9133.176164457054</v>
       </c>
       <c r="R19">
-        <v>9992.529332544316</v>
+        <v>82198.58548011348</v>
       </c>
       <c r="S19">
-        <v>0.01873266975253927</v>
+        <v>0.01228697217861883</v>
       </c>
       <c r="T19">
-        <v>0.01873266975253927</v>
+        <v>0.01228697217861883</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H20">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.8681407630072</v>
+        <v>428.2238463333333</v>
       </c>
       <c r="N20">
-        <v>54.8681407630072</v>
+        <v>1284.671539</v>
       </c>
       <c r="O20">
-        <v>0.0890499538081662</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="P20">
-        <v>0.0890499538081662</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="Q20">
-        <v>9222.013646834957</v>
+        <v>82309.89284517836</v>
       </c>
       <c r="R20">
-        <v>9222.013646834957</v>
+        <v>740789.0356066052</v>
       </c>
       <c r="S20">
-        <v>0.01728820905603315</v>
+        <v>0.1107324927498456</v>
       </c>
       <c r="T20">
-        <v>0.01728820905603315</v>
+        <v>0.1107324927498456</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H21">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>21.9640969280272</v>
+        <v>0.376277</v>
       </c>
       <c r="N21">
-        <v>21.9640969280272</v>
+        <v>1.128831</v>
       </c>
       <c r="O21">
-        <v>0.0356473135353185</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="P21">
-        <v>0.0356473135353185</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="Q21">
-        <v>3691.635962034211</v>
+        <v>72.32506973933633</v>
       </c>
       <c r="R21">
-        <v>3691.635962034211</v>
+        <v>650.925627654027</v>
       </c>
       <c r="S21">
-        <v>0.006920589874893697</v>
+        <v>9.729978965720745E-05</v>
       </c>
       <c r="T21">
-        <v>0.006920589874893697</v>
+        <v>9.729978965720745E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H22">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I22">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J22">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>405.988787689166</v>
+        <v>76.72111133333333</v>
       </c>
       <c r="N22">
-        <v>405.988787689166</v>
+        <v>230.163334</v>
       </c>
       <c r="O22">
-        <v>0.6589121170792183</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="P22">
-        <v>0.6589121170792183</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="Q22">
-        <v>148580.6645179003</v>
+        <v>14746.74170268903</v>
       </c>
       <c r="R22">
-        <v>148580.6645179003</v>
+        <v>132720.6753242013</v>
       </c>
       <c r="S22">
-        <v>0.278539339480524</v>
+        <v>0.01983896968191127</v>
       </c>
       <c r="T22">
-        <v>0.278539339480524</v>
+        <v>0.01983896968191128</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H23">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I23">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J23">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>73.87663450791339</v>
+        <v>66.29053499999999</v>
       </c>
       <c r="N23">
-        <v>73.87663450791339</v>
+        <v>198.871605</v>
       </c>
       <c r="O23">
-        <v>0.1199003793266477</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="P23">
-        <v>0.1199003793266477</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="Q23">
-        <v>27036.80441523862</v>
+        <v>12741.85657622686</v>
       </c>
       <c r="R23">
-        <v>27036.80441523862</v>
+        <v>114676.7091860418</v>
       </c>
       <c r="S23">
-        <v>0.05068501791885176</v>
+        <v>0.01714177351197057</v>
       </c>
       <c r="T23">
-        <v>0.05068501791885176</v>
+        <v>0.01714177351197057</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H24">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I24">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J24">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.4524717695131</v>
+        <v>55.09903466666666</v>
       </c>
       <c r="N24">
-        <v>59.4524717695131</v>
+        <v>165.297104</v>
       </c>
       <c r="O24">
-        <v>0.09649023625064933</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="P24">
-        <v>0.09649023625064933</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="Q24">
-        <v>21757.95990087559</v>
+        <v>10590.7124932876</v>
       </c>
       <c r="R24">
-        <v>21757.95990087559</v>
+        <v>95316.41243958837</v>
       </c>
       <c r="S24">
-        <v>0.04078893979171481</v>
+        <v>0.01424781340178073</v>
       </c>
       <c r="T24">
-        <v>0.04078893979171481</v>
+        <v>0.01424781340178073</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H25">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I25">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J25">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.8681407630072</v>
+        <v>22.71418433333333</v>
       </c>
       <c r="N25">
-        <v>54.8681407630072</v>
+        <v>68.14255299999999</v>
       </c>
       <c r="O25">
-        <v>0.0890499538081662</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="P25">
-        <v>0.0890499538081662</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="Q25">
-        <v>20080.22157910164</v>
+        <v>4365.945742047678</v>
       </c>
       <c r="R25">
-        <v>20080.22157910164</v>
+        <v>39293.5116784291</v>
       </c>
       <c r="S25">
-        <v>0.03764373832499382</v>
+        <v>0.005873559526275511</v>
       </c>
       <c r="T25">
-        <v>0.03764373832499382</v>
+        <v>0.00587355952627551</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H26">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.9640969280272</v>
+        <v>428.2238463333333</v>
       </c>
       <c r="N26">
-        <v>21.9640969280272</v>
+        <v>1284.671539</v>
       </c>
       <c r="O26">
-        <v>0.0356473135353185</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="P26">
-        <v>0.0356473135353185</v>
+        <v>0.6593892347944894</v>
       </c>
       <c r="Q26">
-        <v>8038.25183369452</v>
+        <v>172336.1527281274</v>
       </c>
       <c r="R26">
-        <v>8038.25183369452</v>
+        <v>1551025.374553147</v>
       </c>
       <c r="S26">
-        <v>0.015069049284442</v>
+        <v>0.2318459072519802</v>
       </c>
       <c r="T26">
-        <v>0.015069049284442</v>
+        <v>0.2318459072519802</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H27">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I27">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J27">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>405.988787689166</v>
+        <v>0.376277</v>
       </c>
       <c r="N27">
-        <v>405.988787689166</v>
+        <v>1.128831</v>
       </c>
       <c r="O27">
-        <v>0.6589121170792183</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="P27">
-        <v>0.6589121170792183</v>
+        <v>0.0005794002487839798</v>
       </c>
       <c r="Q27">
-        <v>14620.51847197965</v>
+        <v>151.430451842714</v>
       </c>
       <c r="R27">
-        <v>14620.51847197965</v>
+        <v>1362.874066584426</v>
       </c>
       <c r="S27">
-        <v>0.0274086104760784</v>
+        <v>0.0002037212154111247</v>
       </c>
       <c r="T27">
-        <v>0.0274086104760784</v>
+        <v>0.0002037212154111247</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H28">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I28">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J28">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>73.87663450791339</v>
+        <v>76.72111133333333</v>
       </c>
       <c r="N28">
-        <v>73.87663450791339</v>
+        <v>230.163334</v>
       </c>
       <c r="O28">
-        <v>0.1199003793266477</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="P28">
-        <v>0.1199003793266477</v>
+        <v>0.1181369868302255</v>
       </c>
       <c r="Q28">
-        <v>2660.454505698313</v>
+        <v>30875.95722056313</v>
       </c>
       <c r="R28">
-        <v>2660.454505698313</v>
+        <v>277883.6149850682</v>
       </c>
       <c r="S28">
-        <v>0.00498746753583078</v>
+        <v>0.04153779808098523</v>
       </c>
       <c r="T28">
-        <v>0.00498746753583078</v>
+        <v>0.04153779808098523</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H29">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I29">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J29">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>59.4524717695131</v>
+        <v>66.29053499999999</v>
       </c>
       <c r="N29">
-        <v>59.4524717695131</v>
+        <v>198.871605</v>
       </c>
       <c r="O29">
-        <v>0.09649023625064933</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="P29">
-        <v>0.09649023625064933</v>
+        <v>0.1020757380095598</v>
       </c>
       <c r="Q29">
-        <v>2141.009771867182</v>
+        <v>26678.23350336387</v>
       </c>
       <c r="R29">
-        <v>2141.009771867182</v>
+        <v>240104.1015302748</v>
       </c>
       <c r="S29">
-        <v>0.00401368138722644</v>
+        <v>0.03589054967604637</v>
       </c>
       <c r="T29">
-        <v>0.00401368138722644</v>
+        <v>0.03589054967604637</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H30">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I30">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J30">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>54.8681407630072</v>
+        <v>55.09903466666666</v>
       </c>
       <c r="N30">
-        <v>54.8681407630072</v>
+        <v>165.297104</v>
       </c>
       <c r="O30">
-        <v>0.0890499538081662</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="P30">
-        <v>0.0890499538081662</v>
+        <v>0.08484280036681434</v>
       </c>
       <c r="Q30">
-        <v>1975.918276252765</v>
+        <v>22174.28042551284</v>
       </c>
       <c r="R30">
-        <v>1975.918276252765</v>
+        <v>199568.5238296156</v>
       </c>
       <c r="S30">
-        <v>0.003704189729671282</v>
+        <v>0.02983132721445379</v>
       </c>
       <c r="T30">
-        <v>0.003704189729671282</v>
+        <v>0.02983132721445378</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.012123771195</v>
+        <v>402.444082</v>
       </c>
       <c r="H31">
-        <v>36.012123771195</v>
+        <v>1207.332246</v>
       </c>
       <c r="I31">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J31">
-        <v>0.04159676194387419</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.9640969280272</v>
+        <v>22.71418433333333</v>
       </c>
       <c r="N31">
-        <v>21.9640969280272</v>
+        <v>68.14255299999999</v>
       </c>
       <c r="O31">
-        <v>0.0356473135353185</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="P31">
-        <v>0.0356473135353185</v>
+        <v>0.03497583975012693</v>
       </c>
       <c r="Q31">
-        <v>790.9737770946394</v>
+        <v>9141.189062407115</v>
       </c>
       <c r="R31">
-        <v>790.9737770946394</v>
+        <v>82270.70156166403</v>
       </c>
       <c r="S31">
-        <v>0.001482812815067288</v>
+        <v>0.01229775202698808</v>
       </c>
       <c r="T31">
-        <v>0.001482812815067288</v>
+        <v>0.01229775202698808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H32">
+        <v>111.434855</v>
+      </c>
+      <c r="I32">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J32">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>428.2238463333333</v>
+      </c>
+      <c r="N32">
+        <v>1284.671539</v>
+      </c>
+      <c r="O32">
+        <v>0.6593892347944894</v>
+      </c>
+      <c r="P32">
+        <v>0.6593892347944894</v>
+      </c>
+      <c r="Q32">
+        <v>15906.35407456576</v>
+      </c>
+      <c r="R32">
+        <v>143157.1866710918</v>
+      </c>
+      <c r="S32">
+        <v>0.02139901020830339</v>
+      </c>
+      <c r="T32">
+        <v>0.02139901020830339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H33">
+        <v>111.434855</v>
+      </c>
+      <c r="I33">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J33">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.376277</v>
+      </c>
+      <c r="N33">
+        <v>1.128831</v>
+      </c>
+      <c r="O33">
+        <v>0.0005794002487839798</v>
+      </c>
+      <c r="P33">
+        <v>0.0005794002487839798</v>
+      </c>
+      <c r="Q33">
+        <v>13.97679097827833</v>
+      </c>
+      <c r="R33">
+        <v>125.791118804505</v>
+      </c>
+      <c r="S33">
+        <v>1.880314567508242E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.880314567508242E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H34">
+        <v>111.434855</v>
+      </c>
+      <c r="I34">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J34">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>76.72111133333333</v>
+      </c>
+      <c r="N34">
+        <v>230.163334</v>
+      </c>
+      <c r="O34">
+        <v>0.1181369868302255</v>
+      </c>
+      <c r="P34">
+        <v>0.1181369868302255</v>
+      </c>
+      <c r="Q34">
+        <v>2849.801972289618</v>
+      </c>
+      <c r="R34">
+        <v>25648.21775060657</v>
+      </c>
+      <c r="S34">
+        <v>0.003833873005139521</v>
+      </c>
+      <c r="T34">
+        <v>0.003833873005139521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H35">
+        <v>111.434855</v>
+      </c>
+      <c r="I35">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J35">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>66.29053499999999</v>
+      </c>
+      <c r="N35">
+        <v>198.871605</v>
+      </c>
+      <c r="O35">
+        <v>0.1020757380095598</v>
+      </c>
+      <c r="P35">
+        <v>0.1020757380095598</v>
+      </c>
+      <c r="Q35">
+        <v>2462.358718532475</v>
+      </c>
+      <c r="R35">
+        <v>22161.22846679227</v>
+      </c>
+      <c r="S35">
+        <v>0.003312640917420278</v>
+      </c>
+      <c r="T35">
+        <v>0.003312640917420278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H36">
+        <v>111.434855</v>
+      </c>
+      <c r="I36">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J36">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>55.09903466666666</v>
+      </c>
+      <c r="N36">
+        <v>165.297104</v>
+      </c>
+      <c r="O36">
+        <v>0.08484280036681434</v>
+      </c>
+      <c r="P36">
+        <v>0.08484280036681434</v>
+      </c>
+      <c r="Q36">
+        <v>2046.650979573324</v>
+      </c>
+      <c r="R36">
+        <v>18419.85881615992</v>
+      </c>
+      <c r="S36">
+        <v>0.002753384276460559</v>
+      </c>
+      <c r="T36">
+        <v>0.002753384276460559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H37">
+        <v>111.434855</v>
+      </c>
+      <c r="I37">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J37">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>22.71418433333333</v>
+      </c>
+      <c r="N37">
+        <v>68.14255299999999</v>
+      </c>
+      <c r="O37">
+        <v>0.03497583975012693</v>
+      </c>
+      <c r="P37">
+        <v>0.03497583975012693</v>
+      </c>
+      <c r="Q37">
+        <v>843.7172792094237</v>
+      </c>
+      <c r="R37">
+        <v>7593.455512884814</v>
+      </c>
+      <c r="S37">
+        <v>0.00113506304374262</v>
+      </c>
+      <c r="T37">
+        <v>0.001135063043742619</v>
       </c>
     </row>
   </sheetData>
